--- a/data/georgia_census/imereti/khoni/age_dependency.xlsx
+++ b/data/georgia_census/imereti/khoni/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{944C9BC7-3363-42D5-AF11-00DF738A91C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32C5CC25-B188-4120-9023-9944C4AE423B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BF0A93B-49BE-454F-99EF-6EB03B71AE20}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72F98CEC-9EF4-43D3-8778-78D29287B0B9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8D6BFAB-D4F1-4F27-8AB1-A8FFB9A5DC72}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DFC450E-DE65-484A-A095-992F03522E68}"/>
 </file>